--- a/library/Library_J.PLAGGENBERG_02.18.20.xlsx
+++ b/library/Library_J.PLAGGENBERG_02.18.20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaplaggenberg/Documents/rnaseq-database/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE0F0AB-E90E-D640-9031-8EA460495B97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB18392B-160C-7D48-BCDF-C12A45CE4DB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="460" windowWidth="18520" windowHeight="19640" xr2:uid="{EF59ECE8-FFDC-AD4D-AC15-EA4DD73E2EB8}"/>
+    <workbookView xWindow="17820" yWindow="460" windowWidth="20540" windowHeight="19640" xr2:uid="{EF59ECE8-FFDC-AD4D-AC15-EA4DD73E2EB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="58">
   <si>
     <t>s2cDNADate</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>J.PLAGGENBERG</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t>TGTTTGT</t>
@@ -216,7 +213,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -253,6 +250,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -274,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -286,6 +289,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,7 +607,7 @@
   <dimension ref="A1:Z41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -665,7 +669,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
@@ -674,7 +678,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
@@ -686,19 +690,19 @@
         <v>1</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="L2" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -717,7 +721,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
@@ -726,7 +730,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
@@ -738,24 +742,24 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="L3" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -764,7 +768,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
@@ -776,24 +780,24 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="L4" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
@@ -802,7 +806,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
@@ -814,24 +818,24 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="L5" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -840,7 +844,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
@@ -852,24 +856,24 @@
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="L6" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -878,7 +882,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>12</v>
@@ -890,24 +894,24 @@
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="L7" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
@@ -916,7 +920,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>12</v>
@@ -928,24 +932,24 @@
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="L8" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
@@ -954,7 +958,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>12</v>
@@ -966,24 +970,24 @@
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="L9" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -992,7 +996,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>12</v>
@@ -1004,24 +1008,24 @@
         <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="L10" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
@@ -1030,7 +1034,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
@@ -1042,24 +1046,24 @@
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="L11" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
@@ -1068,7 +1072,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>12</v>
@@ -1080,24 +1084,24 @@
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="L12" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
@@ -1106,7 +1110,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>
@@ -1118,24 +1122,24 @@
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="L13" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -1144,7 +1148,7 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>12</v>
@@ -1156,24 +1160,24 @@
         <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="L14" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>12</v>
@@ -1182,7 +1186,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>12</v>
@@ -1194,24 +1198,24 @@
         <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="L15" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>12</v>
@@ -1220,7 +1224,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>12</v>
@@ -1232,24 +1236,24 @@
         <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="L16" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>12</v>
@@ -1258,7 +1262,7 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>12</v>
@@ -1270,24 +1274,24 @@
         <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="L17" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>12</v>
@@ -1296,7 +1300,7 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>12</v>
@@ -1308,24 +1312,24 @@
         <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="L18" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>12</v>
@@ -1334,7 +1338,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>12</v>
@@ -1346,24 +1350,24 @@
         <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="L19" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>12</v>
@@ -1372,7 +1376,7 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>12</v>
@@ -1384,24 +1388,24 @@
         <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="L20" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>12</v>
@@ -1410,7 +1414,7 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>12</v>
@@ -1422,24 +1426,24 @@
         <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="L21" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>12</v>
@@ -1448,7 +1452,7 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>12</v>
@@ -1460,24 +1464,24 @@
         <v>21</v>
       </c>
       <c r="H22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="L22" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>12</v>
@@ -1486,7 +1490,7 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>12</v>
@@ -1498,24 +1502,24 @@
         <v>22</v>
       </c>
       <c r="H23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="L23" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>12</v>
@@ -1524,7 +1528,7 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>12</v>
@@ -1536,24 +1540,24 @@
         <v>23</v>
       </c>
       <c r="H24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="L24" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>12</v>
@@ -1562,7 +1566,7 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>12</v>
@@ -1574,24 +1578,24 @@
         <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="L25" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>12</v>
@@ -1600,7 +1604,7 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>12</v>
@@ -1612,24 +1616,24 @@
         <v>25</v>
       </c>
       <c r="H26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="L26" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>12</v>
@@ -1638,7 +1642,7 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>12</v>
@@ -1650,24 +1654,24 @@
         <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="L27" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>12</v>
@@ -1676,7 +1680,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>12</v>
@@ -1688,24 +1692,24 @@
         <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="L28" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>12</v>
@@ -1714,7 +1718,7 @@
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>12</v>
@@ -1726,24 +1730,24 @@
         <v>28</v>
       </c>
       <c r="H29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="L29" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>12</v>
@@ -1752,7 +1756,7 @@
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>12</v>
@@ -1764,24 +1768,24 @@
         <v>29</v>
       </c>
       <c r="H30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="L30" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>12</v>
@@ -1790,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>12</v>
@@ -1802,24 +1806,24 @@
         <v>30</v>
       </c>
       <c r="H31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="L31" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>12</v>
@@ -1828,7 +1832,7 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>12</v>
@@ -1840,24 +1844,24 @@
         <v>31</v>
       </c>
       <c r="H32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="L32" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>12</v>
@@ -1866,7 +1870,7 @@
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>12</v>
@@ -1878,24 +1882,24 @@
         <v>32</v>
       </c>
       <c r="H33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="L33" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>12</v>
@@ -1904,7 +1908,7 @@
         <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>12</v>
@@ -1916,24 +1920,24 @@
         <v>33</v>
       </c>
       <c r="H34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="L34" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>12</v>
@@ -1942,7 +1946,7 @@
         <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>12</v>
@@ -1954,24 +1958,24 @@
         <v>34</v>
       </c>
       <c r="H35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="L35" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>12</v>
@@ -1980,7 +1984,7 @@
         <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>12</v>
@@ -1992,24 +1996,24 @@
         <v>35</v>
       </c>
       <c r="H36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="L36" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>12</v>
@@ -2018,7 +2022,7 @@
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>12</v>
@@ -2030,24 +2034,24 @@
         <v>36</v>
       </c>
       <c r="H37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="L37" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>12</v>
@@ -2056,7 +2060,7 @@
         <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>12</v>
@@ -2068,24 +2072,24 @@
         <v>37</v>
       </c>
       <c r="H38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="L38" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>12</v>
@@ -2094,7 +2098,7 @@
         <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>12</v>
@@ -2106,24 +2110,24 @@
         <v>38</v>
       </c>
       <c r="H39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="L39" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>12</v>
@@ -2132,7 +2136,7 @@
         <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>12</v>
@@ -2144,24 +2148,24 @@
         <v>39</v>
       </c>
       <c r="H40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="L40" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>12</v>
@@ -2170,7 +2174,7 @@
         <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>12</v>
@@ -2182,19 +2186,19 @@
         <v>40</v>
       </c>
       <c r="H41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="L41" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/library/Library_J.PLAGGENBERG_02.18.20.xlsx
+++ b/library/Library_J.PLAGGENBERG_02.18.20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaplaggenberg/Documents/rnaseq-database/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB18392B-160C-7D48-BCDF-C12A45CE4DB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CF444E-397A-1247-B45D-5E5CBEA5D8FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17820" yWindow="460" windowWidth="20540" windowHeight="19640" xr2:uid="{EF59ECE8-FFDC-AD4D-AC15-EA4DD73E2EB8}"/>
+    <workbookView xWindow="600" yWindow="540" windowWidth="19740" windowHeight="19640" xr2:uid="{EF59ECE8-FFDC-AD4D-AC15-EA4DD73E2EB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,9 +116,6 @@
     <t>GTACGGC</t>
   </si>
   <si>
-    <t>E7420</t>
-  </si>
-  <si>
     <t>02.14.20</t>
   </si>
   <si>
@@ -207,6 +204,9 @@
   </si>
   <si>
     <t>TCAACTG</t>
+  </si>
+  <si>
+    <t>E7420L</t>
   </si>
 </sst>
 </file>
@@ -607,7 +607,7 @@
   <dimension ref="A1:Z41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -669,7 +669,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
@@ -678,7 +678,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
@@ -690,16 +690,16 @@
         <v>1</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L2" s="7" t="b">
         <v>0</v>
@@ -721,7 +721,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
@@ -730,7 +730,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
@@ -742,16 +742,16 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L3" s="7" t="b">
         <v>0</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -768,7 +768,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
@@ -780,16 +780,16 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L4" s="7" t="b">
         <v>0</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
@@ -806,7 +806,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
@@ -818,16 +818,16 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L5" s="7" t="b">
         <v>0</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -844,7 +844,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
@@ -856,16 +856,16 @@
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L6" s="7" t="b">
         <v>0</v>
@@ -873,7 +873,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -882,7 +882,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>12</v>
@@ -894,16 +894,16 @@
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L7" s="7" t="b">
         <v>0</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
@@ -920,7 +920,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>12</v>
@@ -932,16 +932,16 @@
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L8" s="7" t="b">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
@@ -958,7 +958,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>12</v>
@@ -970,16 +970,16 @@
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="b">
         <v>0</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -996,7 +996,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>12</v>
@@ -1008,16 +1008,16 @@
         <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L10" s="7" t="b">
         <v>0</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
@@ -1034,7 +1034,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
@@ -1046,16 +1046,16 @@
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L11" s="7" t="b">
         <v>0</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
@@ -1072,7 +1072,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>12</v>
@@ -1084,16 +1084,16 @@
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L12" s="7" t="b">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
@@ -1110,7 +1110,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>
@@ -1122,16 +1122,16 @@
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L13" s="7" t="b">
         <v>0</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -1148,7 +1148,7 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>12</v>
@@ -1160,16 +1160,16 @@
         <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L14" s="7" t="b">
         <v>0</v>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>12</v>
@@ -1186,7 +1186,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>12</v>
@@ -1198,16 +1198,16 @@
         <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="b">
         <v>0</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>12</v>
@@ -1224,7 +1224,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>12</v>
@@ -1236,16 +1236,16 @@
         <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L16" s="7" t="b">
         <v>0</v>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>12</v>
@@ -1262,7 +1262,7 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>12</v>
@@ -1274,16 +1274,16 @@
         <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L17" s="7" t="b">
         <v>0</v>
@@ -1291,7 +1291,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>12</v>
@@ -1300,7 +1300,7 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>12</v>
@@ -1312,16 +1312,16 @@
         <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L18" s="7" t="b">
         <v>0</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>12</v>
@@ -1338,7 +1338,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>12</v>
@@ -1350,16 +1350,16 @@
         <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L19" s="7" t="b">
         <v>0</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>12</v>
@@ -1376,7 +1376,7 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>12</v>
@@ -1388,16 +1388,16 @@
         <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L20" s="7" t="b">
         <v>0</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>12</v>
@@ -1414,7 +1414,7 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>12</v>
@@ -1426,16 +1426,16 @@
         <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="b">
         <v>0</v>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>12</v>
@@ -1452,7 +1452,7 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>12</v>
@@ -1464,16 +1464,16 @@
         <v>21</v>
       </c>
       <c r="H22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L22" s="7" t="b">
         <v>0</v>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>12</v>
@@ -1490,7 +1490,7 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>12</v>
@@ -1502,16 +1502,16 @@
         <v>22</v>
       </c>
       <c r="H23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L23" s="7" t="b">
         <v>0</v>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>12</v>
@@ -1528,7 +1528,7 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>12</v>
@@ -1540,16 +1540,16 @@
         <v>23</v>
       </c>
       <c r="H24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L24" s="7" t="b">
         <v>0</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>12</v>
@@ -1566,7 +1566,7 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>12</v>
@@ -1578,16 +1578,16 @@
         <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L25" s="7" t="b">
         <v>0</v>
@@ -1595,7 +1595,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>12</v>
@@ -1604,7 +1604,7 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>12</v>
@@ -1616,16 +1616,16 @@
         <v>25</v>
       </c>
       <c r="H26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L26" s="7" t="b">
         <v>0</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>12</v>
@@ -1642,7 +1642,7 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>12</v>
@@ -1654,16 +1654,16 @@
         <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="b">
         <v>0</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>12</v>
@@ -1680,7 +1680,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>12</v>
@@ -1695,13 +1695,13 @@
         <v>13</v>
       </c>
       <c r="I28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L28" s="7" t="b">
         <v>0</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>12</v>
@@ -1718,7 +1718,7 @@
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>12</v>
@@ -1733,13 +1733,13 @@
         <v>14</v>
       </c>
       <c r="I29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L29" s="7" t="b">
         <v>0</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>12</v>
@@ -1756,7 +1756,7 @@
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>12</v>
@@ -1771,13 +1771,13 @@
         <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L30" s="7" t="b">
         <v>0</v>
@@ -1785,7 +1785,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>12</v>
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>12</v>
@@ -1809,13 +1809,13 @@
         <v>16</v>
       </c>
       <c r="I31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L31" s="7" t="b">
         <v>0</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>12</v>
@@ -1832,7 +1832,7 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>12</v>
@@ -1847,13 +1847,13 @@
         <v>17</v>
       </c>
       <c r="I32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L32" s="7" t="b">
         <v>0</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>12</v>
@@ -1870,7 +1870,7 @@
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>12</v>
@@ -1885,13 +1885,13 @@
         <v>18</v>
       </c>
       <c r="I33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L33" s="7" t="b">
         <v>0</v>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>12</v>
@@ -1908,7 +1908,7 @@
         <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>12</v>
@@ -1923,13 +1923,13 @@
         <v>19</v>
       </c>
       <c r="I34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L34" s="7" t="b">
         <v>0</v>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>12</v>
@@ -1946,7 +1946,7 @@
         <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>12</v>
@@ -1961,13 +1961,13 @@
         <v>20</v>
       </c>
       <c r="I35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L35" s="7" t="b">
         <v>0</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>12</v>
@@ -1984,7 +1984,7 @@
         <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>12</v>
@@ -1999,13 +1999,13 @@
         <v>21</v>
       </c>
       <c r="I36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L36" s="7" t="b">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>12</v>
@@ -2022,7 +2022,7 @@
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>12</v>
@@ -2037,13 +2037,13 @@
         <v>22</v>
       </c>
       <c r="I37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L37" s="7" t="b">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>12</v>
@@ -2060,7 +2060,7 @@
         <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>12</v>
@@ -2075,13 +2075,13 @@
         <v>23</v>
       </c>
       <c r="I38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L38" s="7" t="b">
         <v>0</v>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>12</v>
@@ -2098,7 +2098,7 @@
         <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>12</v>
@@ -2113,13 +2113,13 @@
         <v>24</v>
       </c>
       <c r="I39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L39" s="7" t="b">
         <v>0</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>12</v>
@@ -2136,7 +2136,7 @@
         <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>12</v>
@@ -2151,13 +2151,13 @@
         <v>25</v>
       </c>
       <c r="I40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L40" s="7" t="b">
         <v>0</v>
@@ -2165,7 +2165,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>12</v>
@@ -2174,7 +2174,7 @@
         <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>12</v>
@@ -2189,13 +2189,13 @@
         <v>26</v>
       </c>
       <c r="I41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L41" s="7" t="b">
         <v>0</v>
